--- a/data/trans_bre/PCS12_SP_R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Habitat-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.5693188599184082</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1858928707065117</v>
+        <v>0.1858928707065118</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.569018019845502</v>
+        <v>5.421118705030467</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.198045845533699</v>
+        <v>7.123183944416017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.181375062774426</v>
+        <v>6.208207400805147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2672483655726683</v>
+        <v>0.7525731243212316</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2798741376614687</v>
+        <v>0.2632391805530138</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.333053308769778</v>
+        <v>0.319113835079166</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2986568799226166</v>
+        <v>0.2883898541856934</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.008075393790886115</v>
+        <v>0.02481790584029564</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.44239390711816</v>
+        <v>14.24961913927129</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.89935199299702</v>
+        <v>16.61245639022397</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.9314659863313</v>
+        <v>15.63880884499938</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.294817649473964</v>
+        <v>9.00195878805166</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9375477571889387</v>
+        <v>0.9275289507628381</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9934959342999604</v>
+        <v>0.964666174112807</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9306306191259677</v>
+        <v>0.9048219659039451</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3723404158845899</v>
+        <v>0.3669952380029223</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.6127025224789615</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6411316277944548</v>
+        <v>0.6411316277944544</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.512580935657869</v>
+        <v>9.643074117018763</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.036215938299796</v>
+        <v>7.330116776991805</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.203205067231521</v>
+        <v>6.374963641597321</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.364276850980854</v>
+        <v>8.19435627026477</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5920112729987907</v>
+        <v>0.6077523030556921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3293588256629833</v>
+        <v>0.3648370207155772</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3491167285533285</v>
+        <v>0.3428012118097295</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.41322730964134</v>
+        <v>0.4017091219129844</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.03486783040243</v>
+        <v>16.65830704550856</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.81602131157582</v>
+        <v>14.92781839309801</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.49670148592848</v>
+        <v>13.92209658052008</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15.12656080215025</v>
+        <v>15.29919285311868</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.354154849510781</v>
+        <v>1.356004302056488</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8693237975301529</v>
+        <v>0.9063219840513541</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9201506469708067</v>
+        <v>0.9294427868083568</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9248913109567738</v>
+        <v>0.9201409842174076</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.633051138345547</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.335996334417443</v>
+        <v>6.335996334417435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6648321296927419</v>
@@ -849,7 +849,7 @@
         <v>0.5900273698796884</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.312427840838542</v>
+        <v>0.3124278408385415</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.989047662169004</v>
+        <v>6.598751319904918</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.253951130391598</v>
+        <v>8.064606198721179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.559287547167211</v>
+        <v>4.378351516364726</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.337196179402064</v>
+        <v>2.472190892942879</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.365921116306217</v>
+        <v>0.3304994025676211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4572946758718319</v>
+        <v>0.4958196463555201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2675017339806265</v>
+        <v>0.2604711107449785</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.09764234300799632</v>
+        <v>0.1105676897492893</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.87830436941355</v>
+        <v>16.07501848692095</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.04251107312603</v>
+        <v>16.48110188594407</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.19348689034232</v>
+        <v>12.83359053597893</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.51840942851916</v>
+        <v>10.48855368386774</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.062345211785026</v>
+        <v>1.051118136485395</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.307523984583045</v>
+        <v>1.371674844978815</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.030072348486892</v>
+        <v>0.9660419921019557</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5811092596540528</v>
+        <v>0.573883317948055</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.5097377949066527</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.541950293042173</v>
+        <v>0.5419502930421725</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.976453445796792</v>
+        <v>7.381640680432157</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.196775321747808</v>
+        <v>6.248027232588862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.911299435068839</v>
+        <v>4.823744319703062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.975072778058125</v>
+        <v>8.072018627976608</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.402020866309565</v>
+        <v>0.4352592262795513</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2905679645749297</v>
+        <v>0.2921171663242547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2536963360125811</v>
+        <v>0.254685131115564</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3456299005756486</v>
+        <v>0.3432601913702467</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.33248936597948</v>
+        <v>14.32622634549117</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.27561732173778</v>
+        <v>14.20416830716528</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.20442949268345</v>
+        <v>12.10217609441477</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.83237810946313</v>
+        <v>14.94436637828369</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.05453644710263</v>
+        <v>1.058671750410807</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8188969640630314</v>
+        <v>0.812279043715706</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7990719893001283</v>
+        <v>0.8049611369603442</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7746484404915089</v>
+        <v>0.7729417424345542</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.459649322304371</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.173597076226944</v>
+        <v>9.173597076226942</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7214353064448424</v>
@@ -1049,7 +1049,7 @@
         <v>0.5669527672555508</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4335463068274151</v>
+        <v>0.4335463068274149</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.501165778461578</v>
+        <v>9.586124769980184</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.111615501126181</v>
+        <v>9.302247096885473</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.422651409168582</v>
+        <v>7.349417200686075</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.109831399896077</v>
+        <v>7.30774126372896</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5656642655497136</v>
+        <v>0.5708019396988604</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4765001370251639</v>
+        <v>0.4917781745036811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4146496360667573</v>
+        <v>0.4159518925564639</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3200521235134228</v>
+        <v>0.3239145290788994</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.31772901337341</v>
+        <v>13.59307871903723</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.34291635870432</v>
+        <v>13.61177859964578</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.42210407291815</v>
+        <v>11.46094122517846</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.99113826733335</v>
+        <v>11.02500090298635</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8994881477978343</v>
+        <v>0.9062102138165012</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7956503867057256</v>
+        <v>0.7988663092162762</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7190012218579577</v>
+        <v>0.7179357611884459</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5472224911951068</v>
+        <v>0.5490440838659895</v>
       </c>
     </row>
     <row r="19">
